--- a/correlation/fiatchrysler/minutely/correlation/fiatchrysler_correlation_volume_with_semantics.xlsx
+++ b/correlation/fiatchrysler/minutely/correlation/fiatchrysler_correlation_volume_with_semantics.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.002254557118230681</v>
+        <v>-0.001047423853356052</v>
       </c>
       <c r="D2">
-        <v>-0.0001805371127194287</v>
+        <v>0.001361955900608318</v>
       </c>
       <c r="E2">
-        <v>-0.002417406767448243</v>
+        <v>-0.003599681740986694</v>
       </c>
       <c r="F2">
-        <v>0.002233109393089322</v>
+        <v>-0.00156428188840752</v>
       </c>
       <c r="G2">
-        <v>-0.0003462084138698769</v>
+        <v>0.00206249774832955</v>
       </c>
       <c r="H2">
-        <v>0.001059392293979507</v>
+        <v>0.002017243924921005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.002254557118230681</v>
+        <v>-0.001047423853356052</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6990470852491724</v>
+        <v>0.8235160714383537</v>
       </c>
       <c r="E3">
-        <v>0.3576293501320427</v>
+        <v>-0.09862469442713635</v>
       </c>
       <c r="F3">
-        <v>0.3122579777304255</v>
+        <v>0.1255823281428149</v>
       </c>
       <c r="G3">
-        <v>0.05104940372300106</v>
+        <v>-0.1831583836232288</v>
       </c>
       <c r="H3">
-        <v>-0.3626342922310621</v>
+        <v>-0.452068290250786</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.0001805371127194287</v>
+        <v>0.001361955900608318</v>
       </c>
       <c r="C4">
-        <v>0.6990470852491724</v>
+        <v>0.8235160714383537</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.4148471532787003</v>
+        <v>-0.543698543320648</v>
       </c>
       <c r="F4">
-        <v>-0.01884355633409475</v>
+        <v>-0.08951721522318921</v>
       </c>
       <c r="G4">
-        <v>-0.5530169600798683</v>
+        <v>-0.383262284089302</v>
       </c>
       <c r="H4">
-        <v>-0.75741027984346</v>
+        <v>-0.2692983377530699</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.002417406767448243</v>
+        <v>-0.003599681740986694</v>
       </c>
       <c r="C5">
-        <v>0.3576293501320427</v>
+        <v>-0.09862469442713635</v>
       </c>
       <c r="D5">
-        <v>-0.4148471532787003</v>
+        <v>-0.543698543320648</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4664091252364944</v>
+        <v>0.5435974058825255</v>
       </c>
       <c r="G5">
-        <v>0.8331288457968984</v>
+        <v>0.2833598513985</v>
       </c>
       <c r="H5">
-        <v>0.5452299313520318</v>
+        <v>-0.003946115452403869</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.002233109393089322</v>
+        <v>-0.00156428188840752</v>
       </c>
       <c r="C6">
-        <v>0.3122579777304255</v>
+        <v>0.1255823281428149</v>
       </c>
       <c r="D6">
-        <v>-0.01884355633409475</v>
+        <v>-0.08951721522318921</v>
       </c>
       <c r="E6">
-        <v>0.4664091252364944</v>
+        <v>0.5435974058825255</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6022846733650654</v>
+        <v>0.07803997138138509</v>
       </c>
       <c r="H6">
-        <v>0.2842557497418817</v>
+        <v>0.1730635311773669</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0003462084138698769</v>
+        <v>0.00206249774832955</v>
       </c>
       <c r="C7">
-        <v>0.05104940372300106</v>
+        <v>-0.1831583836232288</v>
       </c>
       <c r="D7">
-        <v>-0.5530169600798683</v>
+        <v>-0.383262284089302</v>
       </c>
       <c r="E7">
-        <v>0.8331288457968984</v>
+        <v>0.2833598513985</v>
       </c>
       <c r="F7">
-        <v>0.6022846733650654</v>
+        <v>0.07803997138138509</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6900472947541048</v>
+        <v>0.3905416579469454</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001059392293979507</v>
+        <v>0.002017243924921005</v>
       </c>
       <c r="C8">
-        <v>-0.3626342922310621</v>
+        <v>-0.452068290250786</v>
       </c>
       <c r="D8">
-        <v>-0.75741027984346</v>
+        <v>-0.2692983377530699</v>
       </c>
       <c r="E8">
-        <v>0.5452299313520318</v>
+        <v>-0.003946115452403869</v>
       </c>
       <c r="F8">
-        <v>0.2842557497418817</v>
+        <v>0.1730635311773669</v>
       </c>
       <c r="G8">
-        <v>0.6900472947541048</v>
+        <v>0.3905416579469454</v>
       </c>
       <c r="H8">
         <v>1</v>
